--- a/laporan_testing_menu.xlsx
+++ b/laporan_testing_menu.xlsx
@@ -451,25 +451,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_223050.png</t>
+          <t>hasil_screenshot\screenshot_224839.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Berhasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gagal masuk ke menu Strategic Framework: Message: 
-</t>
+          <t>Berhasil masuk ke menu Strategic Framework</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_223116.png</t>
+          <t>hasil_screenshot\screenshot_224850.png</t>
         </is>
       </c>
     </row>
@@ -486,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_223124.png</t>
+          <t>hasil_screenshot\screenshot_224902.png</t>
         </is>
       </c>
     </row>
@@ -503,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_223131.png</t>
+          <t>hasil_screenshot\screenshot_224913.png</t>
         </is>
       </c>
     </row>
@@ -520,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_223138.png</t>
+          <t>hasil_screenshot\screenshot_224925.png</t>
         </is>
       </c>
     </row>
@@ -537,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_223146.png</t>
+          <t>hasil_screenshot\screenshot_224936.png</t>
         </is>
       </c>
     </row>

--- a/laporan_testing_menu.xlsx
+++ b/laporan_testing_menu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Berhasil masuk ke menu Who We Are</t>
+          <t>Melakukan klik Menu Who We Are</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_224839.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111734.png</t>
         </is>
       </c>
     </row>
@@ -463,12 +463,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Berhasil masuk ke menu Strategic Framework</t>
+          <t>Berhasil masuk ke menu Who We Are</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_224850.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111740.png</t>
         </is>
       </c>
     </row>
@@ -480,12 +480,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Berhasil masuk ke menu Product</t>
+          <t>Melakukan klik Menu Strategic Framework</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_224902.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111742.png</t>
         </is>
       </c>
     </row>
@@ -497,12 +497,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Berhasil masuk ke menu Careers</t>
+          <t>Berhasil masuk ke menu Strategic Framework</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_224913.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111749.png</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Berhasil masuk ke menu News</t>
+          <t>Melakukan klik Menu Product</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_224925.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111751.png</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,114 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Berhasil masuk ke menu Product</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111757.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Berhasil</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Melakukan klik Menu Careers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111759.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Berhasil</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Berhasil masuk ke menu Careers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111806.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Berhasil</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Melakukan klik Menu News</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111808.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Berhasil</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Berhasil masuk ke menu News</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111814.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Berhasil</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Melakukan klik Menu i2 Academy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111816.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Berhasil</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Berhasil masuk ke menu i2 Academy</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>hasil_screenshot\screenshot_224936.png</t>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>hasil_screenshot\screenshot_KliK_Menu_111822.png</t>
         </is>
       </c>
     </row>

--- a/laporan_testing_menu.xlsx
+++ b/laporan_testing_menu.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111734.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124858.png</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111740.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124905.png</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111742.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124907.png</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111749.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124913.png</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111751.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124915.png</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111757.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124922.png</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111759.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124924.png</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111806.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124930.png</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111808.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124933.png</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111814.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124939.png</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111816.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124941.png</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_KliK_Menu_111822.png</t>
+          <t>hasil_screenshot\screenshot_KliK_Menu_124947.png</t>
         </is>
       </c>
     </row>
